--- a/A2/part2/dataFiles/dataFile.xlsx
+++ b/A2/part2/dataFiles/dataFile.xlsx
@@ -8,22 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexfennell/Desktop/cs680/A2/part2/dataFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39FED39-2914-8D41-B7A4-1DD0AAA915B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5F948A-0B8A-9942-9096-F618569E4AE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="1540" windowWidth="27920" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7220" yWindow="1540" windowWidth="27920" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
     <sheet name="Scholarships" sheetId="2" r:id="rId2"/>
-    <sheet name="Applications" sheetId="3" r:id="rId3"/>
-    <sheet name="AwardedScholarships" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="168">
   <si>
     <t>StudentID</t>
   </si>
@@ -502,6 +500,18 @@
     <t>jv660@drexel.edu</t>
   </si>
   <si>
+    <t>jb326</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>jb326@drexel.edu</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -515,57 +525,12 @@
   </si>
   <si>
     <t>Drexel College of Computing and Informatics</t>
-  </si>
-  <si>
-    <t>Adding Test Scholarship</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>Test Scholarship 3</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>ApplicationID</t>
-  </si>
-  <si>
-    <t>ScholarshipID</t>
-  </si>
-  <si>
-    <t>AdminID</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>AwardID</t>
-  </si>
-  <si>
-    <t>AwardDate</t>
-  </si>
-  <si>
-    <t>isActive</t>
-  </si>
-  <si>
-    <t>ApprovedBy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -595,9 +560,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -912,9 +876,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -1484,6 +1448,20 @@
         <v>158</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1491,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1510,13 +1488,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1524,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C2">
         <v>5000</v>
@@ -1535,135 +1513,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="3" max="4" width="16.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
